--- a/7_other/variables.xlsx
+++ b/7_other/variables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakirsch/Documents/Georgetown 2.1/Thesis/git/nak-thesis/7_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E91BD6-6E4C-CF4E-B74B-EE047B8B558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE005725-82E3-1D43-B3D1-FB84C216C084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="560" windowWidth="25040" windowHeight="14040" xr2:uid="{1E35F2CF-3C94-4D4B-AD05-E1BDCE302E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,11 +123,6 @@
     <t>Total population</t>
   </si>
   <si>
-    <t>0 - weak pledge
-1 - strong pledge ("partially_sufficient" or "sufficient") 
-Based on ability to reduce GHG emissions by 50% relative to 2030 levels</t>
-  </si>
-  <si>
     <t>0 if year is 2016 or earlier
 1 if year is after 2016</t>
   </si>
@@ -182,6 +177,11 @@
 Value of -1: For every dollar of sales, company does one dollar of environmental damages
 Coefficient of 9 for pledge_strong: For ever dollar of revenue, company does $9 less of monetized environmental damages
 Coefficient of 1 for ln_gdp: For every 1% increase in GDP, a country is likely to see a 0.1 change in the ratio (so for every $1 of revenue, $0.10 less in damages).</t>
+  </si>
+  <si>
+    <t>0 - weak pledge
+1 - strong pledge ("partially_sufficient" or "sufficient") 
+Based on ability to reduce GHG emissions by 50% by 2030</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -622,13 +622,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -636,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -692,13 +692,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -706,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -720,13 +720,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -734,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -748,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -762,13 +762,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -776,13 +776,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
